--- a/changes/ak-parts.xlsx
+++ b/changes/ak-parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1571A887-EABC-429F-8138-17BEEBCFE56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F474E0E-412D-4042-88BE-53EC713A28D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>new</t>
   </si>
@@ -135,6 +135,204 @@
   </si>
   <si>
     <t>dust cover</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>izhmash_akm_trigger</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Trigger</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_trigger</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Trigger</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_trigger</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz Trigger</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_lower_receiver</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Lower Reciever</t>
+  </si>
+  <si>
+    <t>izhmash_ak100_series_lower_receiver</t>
+  </si>
+  <si>
+    <t>Izhmash AK-100 Series Lower Reciever</t>
+  </si>
+  <si>
+    <t>izhmash_akm_lower_receiver</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Lower Reciever</t>
+  </si>
+  <si>
+    <t>izhmash_aks74u_lower_receiver</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74U Lower Receiver</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>rear trunnion</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_rear_trunnion</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Rear Trunnion</t>
+  </si>
+  <si>
+    <t>izhmash_akm_rear_trunnion</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Rear Trunnion</t>
+  </si>
+  <si>
+    <t>izhmash_aks74_rear_trunnion</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74 Rear Trunnion</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_lower_receiver</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz Lower Reciever</t>
+  </si>
+  <si>
+    <t>izhmash_ak100_series_rear_trunnion</t>
+  </si>
+  <si>
+    <t>Izhmash AK-100 Series Rear Trunnion</t>
+  </si>
+  <si>
+    <t>izhmash_aks74_stock_lock</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74 Stock Lock</t>
+  </si>
+  <si>
+    <t>spring retainer</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_spring_retainer</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Spring Retainer</t>
+  </si>
+  <si>
+    <t>izhmash_akm_spring_retainer</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Spring Retainer</t>
+  </si>
+  <si>
+    <t>izhmash_ak100_series_spring_retainer</t>
+  </si>
+  <si>
+    <t>Izhmash AK-100 Series Spring Retainer</t>
+  </si>
+  <si>
+    <t>izhmash_aks74_spring_retainer</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74 Spring Retainer</t>
+  </si>
+  <si>
+    <t>legal_arsenal_pilgrim_aksu_spring_retainer</t>
+  </si>
+  <si>
+    <t>fire selector</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_fire_selector</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Fire Selector</t>
+  </si>
+  <si>
+    <t>izhmash_akm_fire_selector</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Fire Selector</t>
+  </si>
+  <si>
+    <t>retro_arms_cnc_ak_model_a_fire_selector</t>
+  </si>
+  <si>
+    <t>Retro Arms CNC AK MODEL A Fire Selector</t>
+  </si>
+  <si>
+    <t>legal_arsenal_ak_enhanced_safety_fire_selector</t>
+  </si>
+  <si>
+    <t>Legal Arsenal AK Enhanced Safety Fire Selector</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_fire_selector</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz Fire Selector</t>
+  </si>
+  <si>
+    <t>izhmash_rmp3_dovetail_mount</t>
+  </si>
+  <si>
+    <t>Izhmash RMP-3 Dovetail</t>
+  </si>
+  <si>
+    <t>izhmash_rmp5_dovetail_mount</t>
+  </si>
+  <si>
+    <t>Izhmash RMP-5 Dovetail</t>
+  </si>
+  <si>
+    <t>izhmash_74m_p_dovetail_mount</t>
+  </si>
+  <si>
+    <t>dovetail</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74M-P Dovetail Mount</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_spring</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz Spring</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_spring</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Spring</t>
+  </si>
+  <si>
+    <t>izhmash_akm_spring</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Spring</t>
+  </si>
+  <si>
+    <t>izhmash_aks74_spring</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74 Spring</t>
   </si>
 </sst>
 </file>
@@ -983,15 +1181,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="22" width="6.7109375" customWidth="1"/>
   </cols>
@@ -1053,497 +1251,347 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-3</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>300</v>
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
       <c r="N4">
-        <f>C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>8.6000000000000014</v>
-      </c>
-      <c r="P4">
-        <v>3.2</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q11" si="0">P4*0.024</f>
-        <v>7.6800000000000007E-2</v>
+        <f t="shared" ref="N4:N60" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <v>-8</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-4</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <v>500</v>
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5">
-        <f>C5-D5*20-E5*0.8-F5*0.6-H5*5+I5*10+J5/300</f>
-        <v>10</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-8</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-3</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1">
-        <v>0</v>
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+      <c r="M6">
+        <v>5000</v>
       </c>
       <c r="N6">
-        <f>C6-D6*20-E6*0.8-F6*0.6-H6*5+I6*10+J6/300</f>
-        <v>9</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-7</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-4</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
-        <v>1000</v>
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7">
-        <f>C7-D7*20-E7*0.8-F7*0.6-H7*5+I7*10+J7/300</f>
-        <v>2.8</v>
-      </c>
-      <c r="P7">
-        <v>6.8</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0.16320000000000001</v>
+        <f t="shared" si="0"/>
+        <v>-7</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-2</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
-        <v>2000</v>
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N37" si="1">C8-D8*20-E8*0.8-F8*0.6-H8*5+I8*10+J8/300</f>
-        <v>3.0000000000000009</v>
-      </c>
-      <c r="P8">
-        <v>7.5839100000000004</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>0.18201384000000001</v>
+        <f t="shared" si="0"/>
+        <v>-6</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.03</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.03</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-4</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1">
-        <v>1200</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="P9">
-        <v>8.1130200000000006</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0.19471248000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-2</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>3.8</v>
-      </c>
-      <c r="P10">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>0.23279999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D12">
+        <v>0.05</v>
+      </c>
+      <c r="M12">
+        <v>200</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.05</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.02</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.02</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.02</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.02</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.02</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1">
-        <v>1500</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="P11">
-        <v>5.9965799999999998</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>0.14391792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.01</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
+      </c>
       <c r="N20">
-        <f>C20-D20*20-E20*0.8-F20*0.6-H20*5+I20*10+J20/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1556,15 +1604,23 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21">
-        <f>C21-D21*20-E21*0.8-F21*0.6-H21*5+I21*10+J21/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.03</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1573,17 +1629,27 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
       <c r="N22">
-        <f>C22-D22*20-E22*0.8-F22*0.6-H22*5+I22*10+J22/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.03</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1592,17 +1658,27 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.03</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1611,17 +1687,27 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.02</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1630,186 +1716,342 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
       <c r="N25">
-        <f>C25-D25*20-E25*0.8-F25*0.6-H25*5+I25*10+J25/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
       <c r="N26">
-        <f>C26-D26*20-E26*0.8-F26*0.6-H26*5+I26*10+J26/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-3</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1">
+        <v>300</v>
+      </c>
       <c r="N27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+        <f t="shared" si="0"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="P27">
+        <v>3.2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27:Q34" si="1">P27*0.024</f>
+        <v>7.6800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-4</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1">
+        <v>500</v>
+      </c>
       <c r="N28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-3</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
       <c r="N29">
-        <f>C29-D29*20-E29*0.8-F29*0.6-H29*5+I29*10+J29/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-4</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1">
+        <v>1000</v>
+      </c>
       <c r="N30">
-        <f>C30-D30*20-E30*0.8-F30*0.6-H30*5+I30*10+J30/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="P30">
+        <v>6.8</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>0.16320000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-2</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="1">
+        <v>2000</v>
+      </c>
       <c r="N31">
-        <f t="shared" ref="N31:N32" si="2">C31-D31*20-E31*0.8-F31*0.6-H31*5+I31*10+J31/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="P31">
+        <v>7.5839100000000004</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>0.18201384000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-4</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1">
+        <v>1200</v>
+      </c>
       <c r="N32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="P32">
+        <v>8.1130200000000006</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>0.19471248000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-2</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1">
+        <v>2000</v>
+      </c>
       <c r="N33">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="P33">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+        <v>0.23279999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-1</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1">
+        <v>1500</v>
+      </c>
       <c r="N34">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="P34">
+        <v>5.9965799999999998</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.14391792</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1822,15 +2064,23 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.02</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1839,17 +2089,27 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
       <c r="N36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.02</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1858,17 +2118,27 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
       <c r="N37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.02</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1877,17 +2147,27 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
       <c r="N38">
-        <f>C38-D38*20-E38*0.8-F38*0.6-H38*5+I38*10+J38/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.01</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1896,17 +2176,27 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="1">
+        <v>750</v>
+      </c>
       <c r="N39">
-        <f>C39-D39*20-E39*0.8-F39*0.6-H39*5+I39*10+J39/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.03</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1915,9 +2205,675 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="1">
+        <v>900</v>
+      </c>
       <c r="N40">
-        <f>C40-D40*20-E40*0.8-F40*0.6-H40*5+I40*10+J40/300</f>
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1">
+        <v>300</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1">
+        <v>300</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1">
+        <v>300</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61">
+        <f>C61-D61*20-E61*0.8-F61*0.6-H61*5+I61*10+J61/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62">
+        <f>C62-D62*20-E62*0.8-F62*0.6-H62*5+I62*10+J62/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63">
+        <f t="shared" ref="N63:N64" si="2">C63-D63*20-E63*0.8-F63*0.6-H63*5+I63*10+J63/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65">
+        <f t="shared" ref="N65:N69" si="3">C65-D65*20-E65*0.8-F65*0.6-H65*5+I65*10+J65/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70">
+        <f>C70-D70*20-E70*0.8-F70*0.6-H70*5+I70*10+J70/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71">
+        <f>C71-D71*20-E71*0.8-F71*0.6-H71*5+I71*10+J71/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72">
+        <f>C72-D72*20-E72*0.8-F72*0.6-H72*5+I72*10+J72/300</f>
         <v>0</v>
       </c>
     </row>

--- a/changes/ak-parts.xlsx
+++ b/changes/ak-parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F474E0E-412D-4042-88BE-53EC713A28D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCDCE18-F01D-4AB5-A384-112815676EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>new</t>
   </si>
@@ -333,6 +333,33 @@
   </si>
   <si>
     <t>Izhmash AKS-74 Spring</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_std_dust_cover</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz Standard Dust Cover</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_sn_picatinny_dust_cover</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz-SN Picatinny Dust Cover</t>
+  </si>
+  <si>
+    <t>charging handle</t>
+  </si>
+  <si>
+    <t>zenitco_rp1_ak_charging_handle</t>
+  </si>
+  <si>
+    <t>RP-1 Zenitco</t>
+  </si>
+  <si>
+    <t>tss_custom_ak_bolt_on_oversize_gen3_charging_handle</t>
+  </si>
+  <si>
+    <t>TSS Custom AK Bolt On Oversize Gen3 Charging Handle</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N60" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <f t="shared" ref="N4:N65" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>-8</v>
       </c>
     </row>
@@ -2048,41 +2075,57 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-3</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1">
+        <v>300</v>
+      </c>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-2</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2090,26 +2133,20 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.02</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2118,20 +2155,18 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
+      <c r="M37" s="1"/>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -2157,16 +2192,16 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2177,25 +2212,25 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2206,20 +2241,26 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.01</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2228,21 +2269,23 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="1">
+        <v>750</v>
+      </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D42" s="1">
         <v>0.03</v>
@@ -2256,26 +2299,20 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.04</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2284,26 +2321,24 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1">
-        <v>300</v>
-      </c>
+      <c r="M43" s="1"/>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2318,16 +2353,22 @@
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.04</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2336,21 +2377,23 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="M45" s="1">
+        <v>300</v>
+      </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <v>0.02</v>
@@ -2364,26 +2407,20 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.02</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2392,26 +2429,24 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
+      <c r="M47" s="1"/>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2422,18 +2457,26 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.02</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2442,11 +2485,19 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="M49" s="1">
+        <v>600</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2458,12 +2509,24 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.02</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2472,17 +2535,27 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.02</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2491,17 +2564,27 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.02</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2510,10 +2593,12 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
       <c r="N53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -2549,10 +2634,6 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -2664,7 +2745,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61">
-        <f>C61-D61*20-E61*0.8-F61*0.6-H61*5+I61*10+J61/300</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2683,7 +2764,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62">
-        <f>C62-D62*20-E62*0.8-F62*0.6-H62*5+I62*10+J62/300</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2702,7 +2783,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63">
-        <f t="shared" ref="N63:N64" si="2">C63-D63*20-E63*0.8-F63*0.6-H63*5+I63*10+J63/300</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2721,7 +2802,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2740,7 +2821,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65">
-        <f t="shared" ref="N65:N69" si="3">C65-D65*20-E65*0.8-F65*0.6-H65*5+I65*10+J65/300</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2759,7 +2840,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66">
-        <f t="shared" si="3"/>
+        <f>C66-D66*20-E66*0.8-F66*0.6-H66*5+I66*10+J66/300</f>
         <v>0</v>
       </c>
     </row>
@@ -2778,7 +2859,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67">
-        <f t="shared" si="3"/>
+        <f>C67-D67*20-E67*0.8-F67*0.6-H67*5+I67*10+J67/300</f>
         <v>0</v>
       </c>
     </row>
@@ -2797,7 +2878,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N68:N69" si="2">C68-D68*20-E68*0.8-F68*0.6-H68*5+I68*10+J68/300</f>
         <v>0</v>
       </c>
     </row>
@@ -2816,7 +2897,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2835,7 +2916,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70">
-        <f>C70-D70*20-E70*0.8-F70*0.6-H70*5+I70*10+J70/300</f>
+        <f t="shared" ref="N70:N74" si="3">C70-D70*20-E70*0.8-F70*0.6-H70*5+I70*10+J70/300</f>
         <v>0</v>
       </c>
     </row>
@@ -2854,7 +2935,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71">
-        <f>C71-D71*20-E71*0.8-F71*0.6-H71*5+I71*10+J71/300</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2873,7 +2954,102 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72">
-        <f>C72-D72*20-E72*0.8-F72*0.6-H72*5+I72*10+J72/300</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75">
+        <f>C75-D75*20-E75*0.8-F75*0.6-H75*5+I75*10+J75/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76">
+        <f>C76-D76*20-E76*0.8-F76*0.6-H76*5+I76*10+J76/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77">
+        <f>C77-D77*20-E77*0.8-F77*0.6-H77*5+I77*10+J77/300</f>
         <v>0</v>
       </c>
     </row>

--- a/changes/ak-parts.xlsx
+++ b/changes/ak-parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCDCE18-F01D-4AB5-A384-112815676EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7285D1C8-BC73-4642-8850-D2895FC4DC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
   <si>
     <t>new</t>
   </si>
@@ -360,6 +360,231 @@
   </si>
   <si>
     <t>TSS Custom AK Bolt On Oversize Gen3 Charging Handle</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_5.45x39_bolt_carrier</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 5.45X39 Bolt Carrier</t>
+  </si>
+  <si>
+    <t>izhmash_akm_7.62x39_bolt_carrier</t>
+  </si>
+  <si>
+    <t>Izhmash AKM 7.62x39 Bolt Carrier</t>
+  </si>
+  <si>
+    <t>izhmash_aks74u_5.45x39_bolt_carrier</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74U 5.45x39 Bolt Carrier</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_9x19_bolt_carrier</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz 9x19 Bolt Carrier</t>
+  </si>
+  <si>
+    <t>front trunnion</t>
+  </si>
+  <si>
+    <t>bolt</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_5.45x39_bolt</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 5.45 Bolt</t>
+  </si>
+  <si>
+    <t>izhmash_akm_7.62x39_bolt</t>
+  </si>
+  <si>
+    <t>Izhmash AKM 7.62x39 Bolt</t>
+  </si>
+  <si>
+    <t>izhmash_aks74u_5.45x39_bolt</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74U Bolt</t>
+  </si>
+  <si>
+    <t>includes bolt</t>
+  </si>
+  <si>
+    <t>bolt piston</t>
+  </si>
+  <si>
+    <t>bolt carrier</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_bolt_piston</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Bolt Piston</t>
+  </si>
+  <si>
+    <t>izhmash_akm_bolt_piston</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Bolt Piston</t>
+  </si>
+  <si>
+    <t>izhmash_aks74u_bolt_piston</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74U Bolt Piston</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_bolt_piston</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz Bolt Piston</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_front_trunnion</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Front Trunnion</t>
+  </si>
+  <si>
+    <t>izhmash_ak100_series_front_trunnion</t>
+  </si>
+  <si>
+    <t>Izhmash AK-100 Series Front Trunnion</t>
+  </si>
+  <si>
+    <t>izhmash_akm_front_trunnion</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Front Trunnion</t>
+  </si>
+  <si>
+    <t>rear sight block</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_rear_sight_block</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Rear Sight Block</t>
+  </si>
+  <si>
+    <t>izhmash_akm_rear_sight_block</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Rear Sight Block</t>
+  </si>
+  <si>
+    <t>izhmash_aks74_front_trunnion</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74U Front Trunnion</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_front_trunnion</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz Front Trunnion</t>
+  </si>
+  <si>
+    <t>izhmash_aks74u_rear_sight_block</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74U Rear Sight Block</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_rear_sight_block</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz Rear Sight Block</t>
+  </si>
+  <si>
+    <t>gas tube</t>
+  </si>
+  <si>
+    <t>izhmash_akm_6p1_sb1_2_gastube</t>
+  </si>
+  <si>
+    <t>Izhmash AKM 6P1 Sb.1-2 Gastube</t>
+  </si>
+  <si>
+    <t>ultimak_m1_b_gastube</t>
+  </si>
+  <si>
+    <t>UltiMAK M1-B Gas Tube</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_6p20_sb1_2_gastube</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74  6P20 Sb.1-2 Gas Tube</t>
+  </si>
+  <si>
+    <t>izhmash_aks74u_6p26_sb1_2_gastube</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74U 6P26 Sb.1-2 Gastube</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_gastube</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz Gastube</t>
+  </si>
+  <si>
+    <t>gas block</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_gasblock</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Gasblock</t>
+  </si>
+  <si>
+    <t>izhmash_ak105_gasblock</t>
+  </si>
+  <si>
+    <t>Izhmask AK-105 Gasblock</t>
+  </si>
+  <si>
+    <t>izhmash_akm_gasblock</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Gasblock</t>
+  </si>
+  <si>
+    <t>front sight block</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_front_sight_block</t>
+  </si>
+  <si>
+    <t>Izhmash AK-74 Front Sight Block</t>
+  </si>
+  <si>
+    <t>izhmash_ak74m_front_sight_block</t>
+  </si>
+  <si>
+    <t>Izhmask AK-74M</t>
+  </si>
+  <si>
+    <t>izhmash_akm_front_sight_block</t>
+  </si>
+  <si>
+    <t>Izhmash AKM Front Sight Block</t>
+  </si>
+  <si>
+    <t>izhmash_aks74u_front_sight_block</t>
+  </si>
+  <si>
+    <t>Izhmash AKS-74U Front Sight Block</t>
+  </si>
+  <si>
+    <t>izhmash_pp-19-01_vityaz_front_sight_block</t>
+  </si>
+  <si>
+    <t>Izhmash PP-19-01 Vityaz Front Sight Block</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,14 +1517,14 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N65" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>-8</v>
+        <f t="shared" ref="N4:N64" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2464,7 +2689,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>107</v>
       </c>
@@ -2493,7 +2718,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>34</v>
@@ -2514,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
@@ -2543,7 +2768,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
@@ -2572,7 +2797,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
@@ -2601,9 +2826,11 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2620,11 +2847,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.04</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2633,13 +2868,27 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.04</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2648,17 +2897,27 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.04</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2667,15 +2926,19 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2688,15 +2951,23 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+        <f>C58-D58*20-E58*0.8-F58*0.6-H58*5+I58*10+J58/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2705,17 +2976,27 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
       <c r="N59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+        <f>C59-D59*20-E59*0.8-F59*0.6-H59*5+I59*10+J59/300</f>
+        <v>-5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.25</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -2724,17 +3005,27 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
       <c r="N60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+        <f>C60-D60*20-E60*0.8-F60*0.6-H60*5+I60*10+J60/300</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.25</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -2743,17 +3034,27 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
       <c r="N61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+        <f>C61-D61*20-E61*0.8-F61*0.6-H61*5+I61*10+J61/300</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.26</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -2762,15 +3063,22 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
       <c r="N62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <f>C62-D62*20-E62*0.8-F62*0.6-H62*5+I62*10+J62/300</f>
+        <v>-5.2</v>
+      </c>
+      <c r="R62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2787,11 +3095,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -2800,17 +3116,27 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.4000000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -2819,17 +3145,27 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
       <c r="N65">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C65-D65*20-E65*0.8-F65*0.6-H65*5+I65*10+J65/300</f>
+        <v>-1.4000000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.03</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2838,17 +3174,27 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
       <c r="N66">
         <f>C66-D66*20-E66*0.8-F66*0.6-H66*5+I66*10+J66/300</f>
-        <v>0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.03</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2857,15 +3203,19 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
       <c r="N67">
-        <f>C67-D67*20-E67*0.8-F67*0.6-H67*5+I67*10+J67/300</f>
-        <v>0</v>
+        <f t="shared" ref="N67:N68" si="2">C67-D67*20-E67*0.8-F67*0.6-H67*5+I67*10+J67/300</f>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2878,15 +3228,23 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68">
-        <f t="shared" ref="N68:N69" si="2">C68-D68*20-E68*0.8-F68*0.6-H68*5+I68*10+J68/300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.1</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -2895,17 +3253,27 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
       <c r="N69">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="N69:N94" si="3">C69-D69*20-E69*0.8-F69*0.6-H69*5+I69*10+J69/300</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.1</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -2914,17 +3282,27 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
       <c r="N70">
-        <f t="shared" ref="N70:N74" si="3">C70-D70*20-E70*0.8-F70*0.6-H70*5+I70*10+J70/300</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.13</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2933,17 +3311,27 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
+      <c r="M71" s="1">
+        <v>200</v>
+      </c>
       <c r="N71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.13</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2952,17 +3340,27 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
       <c r="N72">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.06</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2971,15 +3369,19 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
       <c r="N73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2997,10 +3399,18 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.11</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3009,17 +3419,27 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
       <c r="N75">
-        <f>C75-D75*20-E75*0.8-F75*0.6-H75*5+I75*10+J75/300</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.1</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3028,29 +3448,357 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
       <c r="N76">
-        <f>C76-D76*20-E76*0.8-F76*0.6-H76*5+I76*10+J76/300</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77">
+        <v>0.06</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
       <c r="N77">
-        <f>C77-D77*20-E77*0.8-F77*0.6-H77*5+I77*10+J77/300</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0.11</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="3"/>
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0.08</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="3"/>
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0.08</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="3"/>
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0.05</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0.05</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0.12</v>
+      </c>
+      <c r="E84">
+        <v>-1</v>
+      </c>
+      <c r="F84">
+        <v>-1</v>
+      </c>
+      <c r="M84">
+        <v>800</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="3"/>
+        <v>-0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0.06</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="3"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0.06</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="3"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0.1</v>
+      </c>
+      <c r="M88">
+        <v>500</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>173</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0.04</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0.06</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="3"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0.06</v>
+      </c>
+      <c r="M92">
+        <v>500</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0.05</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0.04</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
       </c>
     </row>
   </sheetData>

--- a/changes/ak-parts.xlsx
+++ b/changes/ak-parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7285D1C8-BC73-4642-8850-D2895FC4DC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946C053-6A3C-4F43-A5B0-EA266A2A1658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,14 +1517,14 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N64" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>-8.6</v>
+        <v>-6.6000000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1538,14 +1538,14 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1559,14 +1559,14 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M6">
         <v>5000</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1580,14 +1580,14 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1601,14 +1601,14 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="N59">
         <f>C59-D59*20-E59*0.8-F59*0.6-H59*5+I59*10+J59/300</f>
-        <v>-5.6000000000000005</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="N60">
         <f>C60-D60*20-E60*0.8-F60*0.6-H60*5+I60*10+J60/300</f>
-        <v>-5</v>
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="N61">
         <f>C61-D61*20-E61*0.8-F61*0.6-H61*5+I61*10+J61/300</f>
-        <v>-5</v>
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="N62">
         <f>C62-D62*20-E62*0.8-F62*0.6-H62*5+I62*10+J62/300</f>
-        <v>-5.2</v>
+        <v>-4.6000000000000005</v>
       </c>
       <c r="R62" t="s">
         <v>125</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>-1.4000000000000001</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="N65">
         <f>C65-D65*20-E65*0.8-F65*0.6-H65*5+I65*10+J65/300</f>
-        <v>-1.4000000000000001</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">

--- a/changes/ak-parts.xlsx
+++ b/changes/ak-parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946C053-6A3C-4F43-A5B0-EA266A2A1658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1FAD1C-DC9A-486A-A002-114B6A524C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="N59">
         <f>C59-D59*20-E59*0.8-F59*0.6-H59*5+I59*10+J59/300</f>
-        <v>-5</v>
+        <v>-4.6000000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="N60">
         <f>C60-D60*20-E60*0.8-F60*0.6-H60*5+I60*10+J60/300</f>
-        <v>-4.4000000000000004</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="N61">
         <f>C61-D61*20-E61*0.8-F61*0.6-H61*5+I61*10+J61/300</f>
-        <v>-4.4000000000000004</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="N62">
         <f>C62-D62*20-E62*0.8-F62*0.6-H62*5+I62*10+J62/300</f>
-        <v>-4.6000000000000005</v>
+        <v>-4.2</v>
       </c>
       <c r="R62" t="s">
         <v>125</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="N65">
         <f>C65-D65*20-E65*0.8-F65*0.6-H65*5+I65*10+J65/300</f>
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N66">
         <f>C66-D66*20-E66*0.8-F66*0.6-H66*5+I66*10+J66/300</f>
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N68" si="2">C67-D67*20-E67*0.8-F67*0.6-H67*5+I67*10+J67/300</f>
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="N69">
         <f t="shared" ref="N69:N94" si="3">C69-D69*20-E69*0.8-F69*0.6-H69*5+I69*10+J69/300</f>
-        <v>-2</v>
+        <v>-1.7999999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-1.7999999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="3"/>
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="1">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="3"/>
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="3"/>
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="3"/>
-        <v>-2.2000000000000002</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-1.7999999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -3464,14 +3464,14 @@
         <v>152</v>
       </c>
       <c r="D77">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M77" s="1">
         <v>0</v>
       </c>
       <c r="N77">
         <f t="shared" si="3"/>
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -3485,14 +3485,14 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
         <f t="shared" si="3"/>
-        <v>-2.2000000000000002</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">

--- a/changes/ak-parts.xlsx
+++ b/changes/ak-parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1FAD1C-DC9A-486A-A002-114B6A524C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F13752-131E-4B32-B4CB-5F9656D1C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="N69">
         <f t="shared" ref="N69:N94" si="3">C69-D69*20-E69*0.8-F69*0.6-H69*5+I69*10+J69/300</f>
-        <v>-1.7999999999999998</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="3"/>
-        <v>-1.7999999999999998</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="3"/>
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="3"/>
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -3749,14 +3749,14 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M92">
         <v>500</v>
       </c>
       <c r="N92">
         <f t="shared" si="3"/>
-        <v>-0.19999999999999996</v>
+        <v>-0.40000000000000013</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">

--- a/changes/ak-parts.xlsx
+++ b/changes/ak-parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F13752-131E-4B32-B4CB-5F9656D1C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756892FE-AD31-4F42-9ABA-E91FB39DF928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="182">
   <si>
     <t>new</t>
   </si>
@@ -261,12 +261,6 @@
   </si>
   <si>
     <t>Izhmash AK-74 Fire Selector</t>
-  </si>
-  <si>
-    <t>izhmash_akm_fire_selector</t>
-  </si>
-  <si>
-    <t>Izhmash AKM Fire Selector</t>
   </si>
   <si>
     <t>retro_arms_cnc_ak_model_a_fire_selector</t>
@@ -1433,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N64" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <f t="shared" ref="N4:N63" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>-6.6000000000000005</v>
       </c>
     </row>
@@ -1842,7 +1836,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1862,10 +1856,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1891,10 +1885,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1920,10 +1914,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1949,10 +1943,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -2301,10 +2295,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2334,10 +2328,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -2388,10 +2382,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -2417,10 +2411,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -2446,16 +2440,16 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2466,11 +2460,11 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -2481,10 +2475,10 @@
         <v>79</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2495,26 +2489,20 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.03</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2523,21 +2511,25 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1">
-        <v>900</v>
-      </c>
+      <c r="M42" s="1"/>
       <c r="N42">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.03</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2546,10 +2538,12 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="M43" s="1">
+        <v>300</v>
+      </c>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -2563,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2578,7 +2572,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -2586,13 +2580,13 @@
         <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2607,22 +2601,16 @@
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.02</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2631,21 +2619,25 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1">
-        <v>300</v>
-      </c>
+      <c r="M46" s="1"/>
       <c r="N46">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.03</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2654,10 +2646,12 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="M47" s="1">
+        <v>750</v>
+      </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -2668,10 +2662,10 @@
         <v>106</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D48" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2682,26 +2676,20 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.02</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2710,21 +2698,25 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1">
-        <v>600</v>
-      </c>
+      <c r="M49" s="1"/>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.02</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2733,18 +2725,20 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -2770,10 +2764,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -2798,18 +2792,12 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.02</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2818,21 +2806,25 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="1">
-        <v>0</v>
-      </c>
+      <c r="M53" s="1"/>
       <c r="N53">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.04</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2841,18 +2833,20 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -2878,10 +2872,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -2906,18 +2900,12 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.04</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2926,21 +2914,25 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="1">
-        <v>0</v>
-      </c>
+      <c r="M57" s="1"/>
       <c r="N57">
-        <f t="shared" si="0"/>
-        <v>-0.8</v>
+        <f>C57-D57*20-E57*0.8-F57*0.6-H57*5+I57*10+J57/300</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.23</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2949,24 +2941,26 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
       <c r="N58">
         <f>C58-D58*20-E58*0.8-F58*0.6-H58*5+I58*10+J58/300</f>
-        <v>0</v>
+        <v>-4.6000000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2981,15 +2975,15 @@
       </c>
       <c r="N59">
         <f>C59-D59*20-E59*0.8-F59*0.6-H59*5+I59*10+J59/300</f>
-        <v>-4.6000000000000005</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -3024,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3039,22 +3033,19 @@
       </c>
       <c r="N61">
         <f>C61-D61*20-E61*0.8-F61*0.6-H61*5+I61*10+J61/300</f>
-        <v>-4</v>
+        <v>-4.2</v>
+      </c>
+      <c r="R61" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.21</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3063,24 +3054,25 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1">
-        <v>0</v>
-      </c>
+      <c r="M62" s="1"/>
       <c r="N62">
-        <f>C62-D62*20-E62*0.8-F62*0.6-H62*5+I62*10+J62/300</f>
-        <v>-4.2</v>
-      </c>
-      <c r="R62" t="s">
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.05</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3089,18 +3081,20 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -3120,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
+        <f>C64-D64*20-E64*0.8-F64*0.6-H64*5+I64*10+J64/300</f>
         <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3150,7 +3144,7 @@
       </c>
       <c r="N65">
         <f>C65-D65*20-E65*0.8-F65*0.6-H65*5+I65*10+J65/300</f>
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3178,23 +3172,17 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <f>C66-D66*20-E66*0.8-F66*0.6-H66*5+I66*10+J66/300</f>
+        <f t="shared" ref="N66:N67" si="2">C66-D66*20-E66*0.8-F66*0.6-H66*5+I66*10+J66/300</f>
         <v>-0.4</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.02</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3203,21 +3191,25 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1">
-        <v>0</v>
-      </c>
+      <c r="M67" s="1"/>
       <c r="N67">
-        <f t="shared" ref="N67:N68" si="2">C67-D67*20-E67*0.8-F67*0.6-H67*5+I67*10+J67/300</f>
-        <v>-0.4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.1</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3226,18 +3218,20 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
       <c r="N68">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="N68:N93" si="3">C68-D68*20-E68*0.8-F68*0.6-H68*5+I68*10+J68/300</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -3257,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N94" si="3">C69-D69*20-E69*0.8-F69*0.6-H69*5+I69*10+J69/300</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -3269,10 +3263,10 @@
         <v>137</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3283,19 +3277,19 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N70">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -3312,7 +3306,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <f t="shared" si="3"/>
@@ -3327,10 +3321,10 @@
         <v>148</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3345,22 +3339,16 @@
       </c>
       <c r="N72">
         <f t="shared" si="3"/>
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.06</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -3369,21 +3357,25 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="1">
-        <v>0</v>
-      </c>
+      <c r="M73" s="1"/>
       <c r="N73">
         <f t="shared" si="3"/>
-        <v>-1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.1</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3392,24 +3384,26 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
       <c r="N74">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3424,36 +3418,25 @@
       </c>
       <c r="N75">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-1.7999999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76">
+        <v>0.05</v>
+      </c>
       <c r="M76" s="1">
         <v>0</v>
       </c>
       <c r="N76">
         <f t="shared" si="3"/>
-        <v>-1.7999999999999998</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -3463,53 +3446,56 @@
       <c r="B77" t="s">
         <v>152</v>
       </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
       <c r="D77">
-        <v>0.05</v>
-      </c>
-      <c r="M77" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B78" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0.1</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
       </c>
       <c r="N78">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
         <v>155</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0.08</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
       </c>
       <c r="N79">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3536,14 +3522,14 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
         <f t="shared" si="3"/>
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -3569,67 +3555,67 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.05</v>
+        <v>0.12</v>
+      </c>
+      <c r="E83">
+        <v>-1</v>
+      </c>
+      <c r="F83">
+        <v>-1</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="N83">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-0.99999999999999989</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>158</v>
-      </c>
       <c r="B84" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0.12</v>
-      </c>
-      <c r="E84">
-        <v>-1</v>
-      </c>
-      <c r="F84">
-        <v>-1</v>
-      </c>
-      <c r="M84">
-        <v>800</v>
+        <v>164</v>
       </c>
       <c r="N84">
         <f t="shared" si="3"/>
-        <v>-0.99999999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0.06</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
       </c>
       <c r="N85">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3653,68 +3639,68 @@
         <v>168</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N87">
         <f t="shared" si="3"/>
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>169</v>
-      </c>
       <c r="B88" t="s">
-        <v>170</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>0.1</v>
-      </c>
-      <c r="M88">
-        <v>500</v>
+        <v>171</v>
       </c>
       <c r="N88">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0.04</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
       </c>
       <c r="N89">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
         <f t="shared" si="3"/>
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -3725,38 +3711,38 @@
         <v>175</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N91">
         <f t="shared" si="3"/>
-        <v>-1.2</v>
+        <v>-0.40000000000000013</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M92">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <f t="shared" si="3"/>
-        <v>-0.40000000000000013</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -3770,33 +3756,12 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>182</v>
-      </c>
-      <c r="B94" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0.04</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
         <f t="shared" si="3"/>
         <v>-0.8</v>
       </c>

--- a/changes/ak-parts.xlsx
+++ b/changes/ak-parts.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756892FE-AD31-4F42-9ABA-E91FB39DF928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54BB33F3-F0D8-44DE-88CE-D49FDAB94235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
+    <sheet name="ak-parts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,14 +1553,14 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="M6">
         <v>5000</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="1">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="1">
         <v>-3</v>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="N58">
         <f>C58-D58*20-E58*0.8-F58*0.6-H58*5+I58*10+J58/300</f>
-        <v>-4.6000000000000005</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="N59">
         <f>C59-D59*20-E59*0.8-F59*0.6-H59*5+I59*10+J59/300</f>
-        <v>-4</v>
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="N60">
         <f>C60-D60*20-E60*0.8-F60*0.6-H60*5+I60*10+J60/300</f>
-        <v>-4</v>
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="N61">
         <f>C61-D61*20-E61*0.8-F61*0.6-H61*5+I61*10+J61/300</f>
-        <v>-4.2</v>
+        <v>-4.6000000000000005</v>
       </c>
       <c r="R61" t="s">
         <v>123</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="N64">
         <f>C64-D64*20-E64*0.8-F64*0.6-H64*5+I64*10+J64/300</f>
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="N65">
         <f>C65-D65*20-E65*0.8-F65*0.6-H65*5+I65*10+J65/300</f>
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="N66">
         <f t="shared" ref="N66:N67" si="2">C66-D66*20-E66*0.8-F66*0.6-H66*5+I66*10+J66/300</f>
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="N68">
         <f t="shared" ref="N68:N93" si="3">C68-D68*20-E68*0.8-F68*0.6-H68*5+I68*10+J68/300</f>
-        <v>-2</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="3"/>
-        <v>-1.6</v>
+        <v>-1.8000000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="3"/>
-        <v>-1.6</v>
+        <v>-1.8000000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="3"/>
-        <v>-1.2</v>
+        <v>-1.4000000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3672,14 +3672,14 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
         <f t="shared" si="3"/>
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -3714,14 +3714,14 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M91">
         <v>500</v>
       </c>
       <c r="N91">
         <f t="shared" si="3"/>
-        <v>-0.40000000000000013</v>
+        <v>-0.60000000000000009</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -3735,14 +3735,14 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
       <c r="N92">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -3756,14 +3756,14 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
         <f t="shared" si="3"/>
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/changes/ak-parts.xlsx
+++ b/changes/ak-parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54BB33F3-F0D8-44DE-88CE-D49FDAB94235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A04E646-60AA-456C-836D-CAF827363B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,14 +1553,14 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="M6">
         <v>5000</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>-5.2</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1574,14 +1574,20 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
+        <v>0.32</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-8.1999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1990,7 +1996,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="1">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E27" s="1">
         <v>-3</v>
@@ -2009,7 +2015,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>8.6000000000000014</v>
+        <v>8.4</v>
       </c>
       <c r="P27">
         <v>3.2</v>
@@ -2030,7 +2036,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="1">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E28" s="1">
         <v>-3</v>
@@ -2049,7 +2055,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
@@ -2067,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E29" s="1">
         <v>-2</v>
@@ -2086,7 +2092,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
@@ -2104,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E30" s="1">
         <v>-2</v>
@@ -2123,7 +2129,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="P30">
         <v>6.8</v>
@@ -2144,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E31" s="1">
         <v>-3</v>
@@ -2163,7 +2169,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>3.0000000000000009</v>
+        <v>2.8000000000000007</v>
       </c>
       <c r="P31">
         <v>7.5839100000000004</v>
@@ -2184,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E32" s="1">
         <v>-4</v>
@@ -2203,7 +2209,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P32">
         <v>8.1130200000000006</v>
@@ -2224,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="1">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="E33" s="1">
         <v>-4</v>
@@ -2243,7 +2249,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>3.6000000000000005</v>
       </c>
       <c r="P33">
         <v>9.6999999999999993</v>
@@ -2264,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E34" s="1">
         <v>-1</v>
@@ -2283,7 +2289,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
         <v>5.9965799999999998</v>
@@ -2304,7 +2310,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="1">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E35" s="1">
         <v>-3</v>
@@ -2323,7 +2329,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2337,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E36" s="1">
         <v>-2</v>
@@ -2356,7 +2362,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
